--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-E-J.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-E-J.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982FF322-D7EB-4D96-AC42-9D7D41E14A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6360DD-8648-4CEB-A575-BE150F1E57DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82485" yWindow="0" windowWidth="31200" windowHeight="23385" firstSheet="2" activeTab="10" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" firstSheet="3" activeTab="7" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="JICAMA" sheetId="11" r:id="rId10"/>
     <sheet name="JITOMATE" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="31">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -137,6 +132,9 @@
   <si>
     <t>экспорт остатка предыдущих лет</t>
   </si>
+  <si>
+    <t xml:space="preserve">Promedio 1971/74 </t>
+  </si>
 </sst>
 </file>
 
@@ -212,10 +210,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,14 +534,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -562,12 +560,12 @@
       <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -575,17 +573,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -619,7 +617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -649,7 +647,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -681,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -713,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -745,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -777,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -809,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -844,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -876,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -908,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -940,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -972,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -1004,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -1071,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -1103,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1167,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1199,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1266,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1298,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1330,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1394,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1461,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1493,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1525,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1557,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1589,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1656,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1688,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1720,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1752,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1784,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1819,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1851,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1947,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -2046,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -2078,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -2110,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -2144,7 +2142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -2215,7 +2213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -2249,7 +2247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -2283,7 +2281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -2317,7 +2315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -2351,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -2385,7 +2383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -2456,7 +2454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -2490,7 +2488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -2524,7 +2522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -2558,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2590,7 +2588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -2627,7 +2625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2659,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2691,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2723,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2755,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2787,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2822,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2854,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2886,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2918,13 +2916,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -2939,17 +2937,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD1E755-338F-4F6E-A1FE-6211AE4C136E}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J64" sqref="J64:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2957,17 +2955,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3001,7 +2999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3031,7 +3029,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -3065,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -3099,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -3133,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -3167,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -3201,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -3238,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -3274,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -3310,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -3346,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -3382,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -3418,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -3457,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -3493,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -3529,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -3565,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -3601,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -3637,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -3712,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3748,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3784,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3820,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3856,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3895,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3931,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3967,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -4003,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -4039,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -4075,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -4114,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -4150,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -4186,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -4258,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -4294,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -4333,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4369,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -4405,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -4441,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -4477,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -4513,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -4552,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -4588,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -4624,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -4660,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -4696,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -4732,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -4771,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4807,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4843,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4879,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4915,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4951,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -4990,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -5026,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -5062,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -5098,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -5134,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -5170,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -5209,7 +5207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -5245,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -5281,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -5317,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -5353,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -5389,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -5428,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -5464,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -5500,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -5536,13 +5534,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -5562,12 +5560,12 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5575,17 +5573,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -5619,7 +5617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -5649,7 +5647,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -5671,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5693,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -5715,7 +5713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -5737,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5759,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -5784,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5806,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5828,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5850,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5872,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5894,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -5919,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5941,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5963,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5985,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -6007,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -6029,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -6054,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -6076,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -6098,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -6120,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -6142,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -6164,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -6189,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -6211,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -6233,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -6255,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -6277,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -6299,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -6324,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -6346,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -6368,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -6390,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -6412,7 +6410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -6434,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -6459,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -6481,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -6503,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -6525,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -6547,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -6569,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -6594,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -6616,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -6638,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -6660,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -6682,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6704,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -6729,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6751,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6773,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6795,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6817,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6839,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -6864,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6886,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6908,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6930,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6952,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6974,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -6999,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -7021,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -7043,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -7065,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -7087,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -7109,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -7134,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -7156,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -7178,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -7200,13 +7198,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -7226,12 +7224,12 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -7239,17 +7237,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -7283,7 +7281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -7313,7 +7311,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -7335,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -7357,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -7379,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -7401,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -7423,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -7445,7 +7443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -7467,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -7489,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -7533,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7555,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -7577,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7599,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7621,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7643,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7665,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7687,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7709,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -7731,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -7753,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -7775,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -7797,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -7819,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -7841,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -7863,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -7885,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -7907,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -7929,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -7951,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -7973,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -7995,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -8017,7 +8015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -8039,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -8061,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -8083,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -8105,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -8127,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -8149,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -8171,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8193,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8215,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -8237,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -8259,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -8281,7 +8279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -8303,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8325,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -8347,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -8369,7 +8367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -8391,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -8413,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -8435,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -8457,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -8479,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -8501,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -8523,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -8545,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -8567,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8589,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8611,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -8633,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8655,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8677,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8699,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8721,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8743,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -8765,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8787,7 +8785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -8809,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -8831,13 +8829,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -8857,12 +8855,12 @@
       <selection pane="bottomLeft" activeCell="G64" sqref="G64:G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8870,17 +8868,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -8914,7 +8912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -8944,7 +8942,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -8980,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9016,7 +9014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -9052,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -9088,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -9124,7 +9122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -9163,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -9199,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -9235,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -9271,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -9307,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -9343,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -9382,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -9418,7 +9416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -9454,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -9490,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -9526,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9562,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -9601,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9637,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9673,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9709,7 +9707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -9745,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -9781,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -9820,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -9856,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -9892,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -9928,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -9964,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -10000,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -10039,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10075,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -10111,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -10145,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -10181,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -10217,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -10256,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -10292,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -10328,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -10364,7 +10362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -10397,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -10433,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -10472,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -10508,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -10544,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -10580,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -10616,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10652,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -10691,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10727,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10763,7 +10761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -10799,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -10835,7 +10833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -10871,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -10910,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -10946,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -10982,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11018,7 +11016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11054,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11090,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -11129,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -11165,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -11201,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -11237,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -11273,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -11309,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -11348,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -11384,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -11420,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -11456,18 +11454,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H74" s="3"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H76" s="3"/>
     </row>
   </sheetData>
@@ -11487,13 +11485,13 @@
       <selection pane="bottomLeft" activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
-    <col min="2" max="2" width="8.20703125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11501,17 +11499,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11545,7 +11543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11575,7 +11573,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -11609,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11643,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11677,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11711,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11745,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -11782,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11818,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11854,7 +11852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11888,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11924,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -11960,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -11999,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -12033,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -12067,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -12102,7 +12100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -12136,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -12170,7 +12168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -12207,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -12241,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -12275,7 +12273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -12309,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -12343,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -12377,7 +12375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -12396,7 +12394,7 @@
         <v>41319</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <v>36078</v>
       </c>
       <c r="J27" s="9">
@@ -12420,7 +12418,7 @@
       <c r="V27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -12454,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -12488,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12522,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -12556,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -12590,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -12627,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12661,7 +12659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12695,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12729,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12763,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12797,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12834,7 +12832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12868,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12902,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12938,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12972,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -13008,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -13047,7 +13045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -13083,7 +13081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -13119,7 +13117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -13155,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -13191,7 +13189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -13227,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -13266,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -13302,7 +13300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -13338,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -13374,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -13410,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -13446,7 +13444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -13485,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -13519,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -13556,7 +13554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13592,7 +13590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13628,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13664,7 +13662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13703,7 +13701,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13737,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13771,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13805,7 +13803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13839,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13873,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -13892,7 +13890,7 @@
         <v>61887</v>
       </c>
       <c r="H69" s="8"/>
-      <c r="I69" s="14">
+      <c r="I69" s="13">
         <v>160346</v>
       </c>
       <c r="J69" s="9">
@@ -13915,7 +13913,7 @@
       <c r="V69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13949,7 +13947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13983,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -14017,13 +14015,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -14040,15 +14038,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59:J72"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -14056,17 +14054,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -14100,7 +14098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -14130,7 +14128,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -14152,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -14174,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -14196,7 +14194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -14218,7 +14216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -14240,7 +14238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -14265,7 +14263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -14287,7 +14285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -14309,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -14331,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -14353,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -14375,7 +14373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -14400,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -14422,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -14444,7 +14442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -14466,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -14488,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -14510,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -14535,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -14557,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14579,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14601,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14623,7 +14621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14645,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14670,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14692,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14714,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14736,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14758,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14780,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14805,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14827,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14849,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14871,7 +14869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14893,7 +14891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14915,7 +14913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -14940,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14962,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14984,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -15006,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -15028,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -15050,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -15075,7 +15073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -15097,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -15119,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -15141,7 +15139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -15163,7 +15161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -15185,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -15210,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -15232,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -15254,7 +15252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -15276,7 +15274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -15298,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -15320,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -15345,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -15367,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -15399,7 +15397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15431,7 +15429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15463,7 +15461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15495,9 +15493,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B63" s="8">
         <v>186009</v>
@@ -15530,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15562,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15594,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15626,7 +15624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15658,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15690,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15725,7 +15723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15757,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15789,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15821,13 +15819,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15844,16 +15842,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
-    <col min="17" max="17" width="11.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15861,17 +15859,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15905,7 +15903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15935,7 +15933,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15957,7 +15955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15979,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -16001,7 +15999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -16023,7 +16021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -16045,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -16070,7 +16068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -16092,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -16114,7 +16112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -16136,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -16158,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -16180,7 +16178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -16205,7 +16203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16227,7 +16225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16249,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16271,7 +16269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16293,7 +16291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16315,7 +16313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -16340,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16362,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16384,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16406,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16428,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16450,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16475,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16497,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16519,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16541,7 +16539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16563,7 +16561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16585,7 +16583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16610,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16632,7 +16630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16654,7 +16652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16676,7 +16674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16698,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16720,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16745,7 +16743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16767,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16789,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16811,7 +16809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16833,7 +16831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16855,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16880,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16902,7 +16900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -16924,7 +16922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -16946,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -16968,7 +16966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -16990,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -17015,7 +17013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17037,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17059,7 +17057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17081,7 +17079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17103,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17125,7 +17123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -17150,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17172,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17206,7 +17204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17242,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17278,7 +17276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17314,9 +17312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B63" s="8">
         <v>45625</v>
@@ -17358,7 +17356,7 @@
       <c r="V63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17392,7 +17390,7 @@
         <v>-5989</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17428,7 +17426,7 @@
       </c>
       <c r="U65" s="3"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17462,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17496,7 +17494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17530,7 +17528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17567,7 +17565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17601,7 +17599,7 @@
         <v>-75511</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17637,7 +17635,7 @@
       </c>
       <c r="U71" s="3"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17671,13 +17669,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -17693,17 +17691,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6AF762-E2EB-4414-A285-FD3ED74AF573}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17711,17 +17709,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17755,7 +17753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17785,7 +17783,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17807,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17829,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17851,7 +17849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17873,7 +17871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17895,7 +17893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -17920,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -17942,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -17964,7 +17962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -17986,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -18008,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -18030,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -18055,7 +18053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -18077,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -18099,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -18121,7 +18119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -18143,7 +18141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -18165,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -18190,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -18212,7 +18210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18234,7 +18232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18256,7 +18254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18278,7 +18276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18300,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -18325,7 +18323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18347,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18369,7 +18367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18391,7 +18389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18413,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18435,7 +18433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -18460,7 +18458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18482,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18504,7 +18502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18526,7 +18524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -18548,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -18570,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -18595,7 +18593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -18617,7 +18615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -18639,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -18661,7 +18659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -18683,7 +18681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -18705,7 +18703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -18730,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -18752,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -18774,7 +18772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -18796,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -18818,7 +18816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -18840,7 +18838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -18865,7 +18863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -18887,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -18909,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -18931,7 +18929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -18953,7 +18951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -18975,7 +18973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -19000,7 +18998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19022,7 +19020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19056,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19090,7 +19088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19124,7 +19122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19158,9 +19156,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B63" s="8">
         <v>19044</v>
@@ -19195,7 +19193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -19229,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -19263,7 +19261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -19299,7 +19297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -19335,7 +19333,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -19371,7 +19369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -19410,7 +19408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -19446,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -19482,7 +19480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -19518,13 +19516,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -19544,12 +19542,12 @@
       <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -19557,17 +19555,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -19601,7 +19599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -19631,7 +19629,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -19665,7 +19663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -19699,7 +19697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -19733,7 +19731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -19767,7 +19765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -19801,7 +19799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -19838,7 +19836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -19872,7 +19870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -19906,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -19940,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -19974,7 +19972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -20008,7 +20006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -20045,7 +20043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -20079,7 +20077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -20113,7 +20111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -20147,7 +20145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -20181,7 +20179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -20215,7 +20213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -20252,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -20286,7 +20284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -20320,7 +20318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -20354,7 +20352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -20388,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -20422,7 +20420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -20455,11 +20453,11 @@
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10">
-        <f>D27-G27+F27-I27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="O27:O34" si="2">D27-G27+F27-I27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -20489,11 +20487,11 @@
         <v>1.3899999999994179</v>
       </c>
       <c r="O28">
-        <f>D28-G28+F28-I28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -20523,11 +20521,11 @@
         <v>-1530.1840000000011</v>
       </c>
       <c r="O29">
-        <f>D29-G29+F29-I29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -20557,11 +20555,11 @@
         <v>-1.8800000000010186</v>
       </c>
       <c r="O30">
-        <f>D30-G30+F30-I30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -20591,11 +20589,11 @@
         <v>-16.959999999999127</v>
       </c>
       <c r="O31">
-        <f>D31-G31+F31-I31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -20625,11 +20623,11 @@
         <v>-17.252000000000407</v>
       </c>
       <c r="O32">
-        <f>D32-G32+F32-I32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -20662,11 +20660,11 @@
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10">
-        <f>D33-G33+F33-I33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -20696,11 +20694,11 @@
         <v>12.204000000001543</v>
       </c>
       <c r="O34">
-        <f>D34-G34+F34-I34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -20732,7 +20730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -20764,7 +20762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -20796,7 +20794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -20830,7 +20828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -20867,7 +20865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -20901,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -20932,7 +20930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -20966,7 +20964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -21000,7 +20998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -21034,7 +21032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -21071,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -21105,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -21139,7 +21137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -21173,7 +21171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -21207,7 +21205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -21241,7 +21239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -21278,7 +21276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -21312,7 +21310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -21346,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -21380,7 +21378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -21414,7 +21412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -21448,7 +21446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -21485,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -21521,7 +21519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -21557,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -21593,7 +21591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -21629,7 +21627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -21662,7 +21660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -21701,7 +21699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -21735,7 +21733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -21767,7 +21765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -21799,7 +21797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -21831,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -21863,7 +21861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -21889,16 +21887,16 @@
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
       <c r="M69" s="11">
-        <f t="shared" ref="M69:M72" si="2">B69*C69/1000 -D69</f>
+        <f t="shared" ref="M69:M72" si="3">B69*C69/1000 -D69</f>
         <v>-16.500999999996566</v>
       </c>
       <c r="N69" s="10"/>
       <c r="O69" s="10">
-        <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
+        <f t="shared" ref="O69:O72" si="4">D69-G69+F69-I69</f>
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -21922,15 +21920,15 @@
         <v>1.1910000000000001</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.8220000000001164</v>
       </c>
       <c r="O70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -21954,15 +21952,15 @@
         <v>0.48599999999999999</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-12.991000000001804</v>
       </c>
       <c r="O71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -21986,21 +21984,21 @@
         <v>0.69399999999999995</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-26.756000000001222</v>
       </c>
       <c r="O72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-E-J.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-E-J.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6360DD-8648-4CEB-A575-BE150F1E57DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C6A08A-E0AB-431C-8623-E8A37D82DE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" firstSheet="3" activeTab="7" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="77235" yWindow="990" windowWidth="31200" windowHeight="21360" firstSheet="3" activeTab="9" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="JICAMA" sheetId="11" r:id="rId10"/>
     <sheet name="JITOMATE" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -160,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -192,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -214,6 +225,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,14 +546,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -555,17 +567,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D039518-803B-4105-922A-5F164A5CB74D}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -583,7 +595,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -617,7 +629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -647,7 +659,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -679,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -711,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -743,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -775,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -807,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -842,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -874,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -906,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -938,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -970,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1197,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1264,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1296,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1360,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1459,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1491,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1555,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1587,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1654,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1718,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1817,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1849,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1881,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1913,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1977,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -2044,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -2123,10 +2135,10 @@
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3">
+      <c r="G49" s="3">
         <v>3</v>
       </c>
+      <c r="H49" s="3"/>
       <c r="I49" s="3">
         <v>33094</v>
       </c>
@@ -2139,10 +2151,10 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -2157,10 +2169,10 @@
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3">
+      <c r="G50" s="3">
         <v>3</v>
       </c>
+      <c r="H50" s="3"/>
       <c r="I50" s="3">
         <v>35555</v>
       </c>
@@ -2173,10 +2185,10 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -2191,10 +2203,10 @@
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8">
+      <c r="G51" s="8">
         <v>1</v>
       </c>
+      <c r="H51" s="8"/>
       <c r="I51" s="8">
         <v>27906</v>
       </c>
@@ -2210,10 +2222,10 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -2228,10 +2240,10 @@
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3">
+      <c r="G52" s="3">
         <v>13</v>
       </c>
+      <c r="H52" s="3"/>
       <c r="I52" s="3">
         <v>32928</v>
       </c>
@@ -2244,10 +2256,10 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -2262,10 +2274,10 @@
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
+      <c r="G53" s="3">
         <v>3</v>
       </c>
+      <c r="H53" s="3"/>
       <c r="I53" s="3">
         <v>35203</v>
       </c>
@@ -2278,10 +2290,10 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -2296,10 +2308,10 @@
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
+      <c r="G54" s="3">
         <v>2</v>
       </c>
+      <c r="H54" s="3"/>
       <c r="I54" s="3">
         <v>27072</v>
       </c>
@@ -2312,10 +2324,10 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -2330,10 +2342,10 @@
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3">
+      <c r="G55" s="3">
         <v>3</v>
       </c>
+      <c r="H55" s="3"/>
       <c r="I55" s="3">
         <v>30336</v>
       </c>
@@ -2346,10 +2358,10 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -2364,10 +2376,10 @@
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3"/>
       <c r="I56" s="3">
         <v>32063</v>
       </c>
@@ -2383,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -2398,10 +2410,10 @@
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8">
+      <c r="G57" s="8">
         <v>4</v>
       </c>
+      <c r="H57" s="8"/>
       <c r="I57" s="8">
         <v>31521</v>
       </c>
@@ -2417,10 +2429,10 @@
       <c r="N57" s="10"/>
       <c r="O57" s="10">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -2435,15 +2447,15 @@
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3">
+      <c r="G58" s="3">
         <v>3</v>
       </c>
+      <c r="H58" s="3"/>
       <c r="I58" s="3">
         <v>35385</v>
       </c>
-      <c r="J58" s="6">
-        <v>0.74199999999999999</v>
+      <c r="J58" s="15">
+        <v>0.70699999999999996</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="0"/>
@@ -2451,10 +2463,10 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -2469,15 +2481,15 @@
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3">
+      <c r="G59" s="3">
         <v>11</v>
       </c>
+      <c r="H59" s="3"/>
       <c r="I59" s="3">
         <v>38960</v>
       </c>
-      <c r="J59" s="6">
-        <v>1.03</v>
+      <c r="J59" s="15">
+        <v>0.74199999999999999</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" si="0"/>
@@ -2485,10 +2497,10 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -2503,15 +2515,15 @@
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3">
+      <c r="G60" s="3">
         <v>52</v>
       </c>
+      <c r="H60" s="3"/>
       <c r="I60" s="3">
         <v>55917</v>
       </c>
-      <c r="J60" s="6">
-        <v>0.55300000000000005</v>
+      <c r="J60" s="15">
+        <v>1.03</v>
       </c>
       <c r="M60" s="2">
         <f t="shared" si="0"/>
@@ -2519,10 +2531,10 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -2537,15 +2549,15 @@
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3">
+      <c r="G61" s="3">
         <v>1</v>
       </c>
+      <c r="H61" s="3"/>
       <c r="I61" s="3">
         <v>31029</v>
       </c>
-      <c r="J61" s="6">
-        <v>0.70699999999999996</v>
+      <c r="J61" s="15">
+        <v>0.55300000000000005</v>
       </c>
       <c r="M61" s="2">
         <f t="shared" si="0"/>
@@ -2553,10 +2565,10 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2571,10 +2583,10 @@
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3">
+      <c r="G62" s="3">
         <v>3</v>
       </c>
+      <c r="H62" s="3"/>
       <c r="I62" s="3">
         <v>41045</v>
       </c>
@@ -2585,10 +2597,10 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -2603,10 +2615,10 @@
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8">
+      <c r="G63" s="8">
         <v>14</v>
       </c>
+      <c r="H63" s="8"/>
       <c r="I63" s="8">
         <v>40467</v>
       </c>
@@ -2622,10 +2634,10 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2657,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2689,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2721,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2753,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2785,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2820,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2852,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2884,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2916,13 +2928,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -2942,12 +2954,12 @@
       <selection pane="bottomLeft" activeCell="J64" sqref="J64:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2965,7 +2977,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2999,7 +3011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3029,7 +3041,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -3165,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -3199,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -3236,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -3272,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -3308,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -3344,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -3380,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -3491,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -3527,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -3563,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -3599,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -3635,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -3674,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -3710,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3746,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3782,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3818,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3854,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3893,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3929,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3965,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -4001,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -4037,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -4073,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -4112,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -4148,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -4184,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -4220,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -4256,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -4292,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -4331,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4367,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -4403,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -4439,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -4475,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -4511,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -4550,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -4586,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -4622,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -4658,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -4694,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -4730,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -4769,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4805,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4841,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4913,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4949,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -4988,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -5024,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -5060,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -5096,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -5132,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -5168,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -5207,7 +5219,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -5243,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -5279,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -5315,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -5351,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -5387,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -5426,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -5462,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -5498,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -5534,13 +5546,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -5560,12 +5572,12 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5583,7 +5595,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -5617,7 +5629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -5647,7 +5659,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -5669,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5691,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -5713,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -5735,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5757,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -5782,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5804,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5826,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5848,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5870,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5892,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -5917,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5939,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5961,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5983,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -6005,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -6027,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -6052,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -6074,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -6096,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -6118,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -6140,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -6162,7 +6174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -6187,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -6209,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -6231,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -6253,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -6275,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -6297,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -6322,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -6344,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -6366,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -6388,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -6410,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -6432,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -6457,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -6479,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -6501,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -6523,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -6545,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -6567,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -6592,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -6614,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -6636,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -6658,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -6680,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6702,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -6727,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6749,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6771,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6793,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6815,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6837,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -6862,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6884,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6906,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6928,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6950,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6972,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -6997,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -7019,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -7041,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -7063,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -7085,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -7107,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -7132,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -7154,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -7176,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -7198,13 +7210,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -7224,12 +7236,12 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -7247,7 +7259,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -7281,7 +7293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -7311,7 +7323,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -7333,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -7355,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -7377,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -7399,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -7421,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -7443,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -7465,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -7487,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -7509,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -7531,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7553,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -7575,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7597,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7619,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7641,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7663,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7685,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7707,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -7729,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -7751,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -7773,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -7795,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -7817,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -7839,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -7861,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -7883,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -7905,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -7927,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -7949,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -7971,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -7993,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -8015,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -8037,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -8059,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -8081,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -8103,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -8125,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -8147,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -8169,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8191,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8213,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -8235,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -8257,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -8279,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -8301,7 +8313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8323,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -8345,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -8367,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -8389,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -8411,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -8433,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -8455,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -8477,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -8499,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -8521,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -8543,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -8565,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8587,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8609,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -8631,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8653,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8675,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8697,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8719,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8741,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -8763,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8785,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -8807,7 +8819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -8829,13 +8841,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -8851,16 +8863,16 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64:G72"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8878,7 +8890,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -8912,7 +8924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -8942,7 +8954,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -8978,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9014,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -9050,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -9086,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -9122,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -9197,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -9233,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -9269,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -9305,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -9341,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -9380,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -9416,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -9452,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -9488,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -9524,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9560,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -9599,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9635,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9671,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9707,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -9743,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -9779,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -9818,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -9854,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -9890,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -9926,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -9951,7 +9963,7 @@
         <v>209619</v>
       </c>
       <c r="J31" s="6">
-        <v>3.6880000000000002</v>
+        <v>8.6880000000000006</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="1"/>
@@ -9962,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -9998,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -10037,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10073,7 +10085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -10109,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -10143,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -10179,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -10215,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -10254,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -10290,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -10326,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -10362,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -10395,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -10431,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -10470,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -10506,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -10542,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -10578,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -10614,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10650,7 +10662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -10689,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10725,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10761,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -10797,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -10833,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -10869,7 +10881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -10908,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -10944,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -10980,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11016,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11052,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11088,7 +11100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -11127,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -11163,7 +11175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -11199,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -11235,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -11271,7 +11283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -11307,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -11346,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -11382,7 +11394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -11418,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -11454,18 +11466,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="H73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="H74" s="3"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="H76" s="3"/>
     </row>
   </sheetData>
@@ -11485,13 +11497,13 @@
       <selection pane="bottomLeft" activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="2" max="2" width="8.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11509,7 +11521,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11543,7 +11555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11573,7 +11585,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -11607,7 +11619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11641,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11675,7 +11687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11709,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11743,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -11780,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11816,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11852,7 +11864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11886,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11922,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -11958,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -11997,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -12031,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -12065,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -12100,7 +12112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -12134,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -12168,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -12205,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -12239,7 +12251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -12273,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -12307,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -12341,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -12375,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -12418,7 +12430,7 @@
       <c r="V27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -12452,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -12486,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12520,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -12554,7 +12566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -12588,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -12625,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12659,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12693,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12727,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12761,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12795,7 +12807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12832,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12866,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12900,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12936,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12970,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -13006,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -13045,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -13081,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -13117,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -13153,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -13189,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -13225,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -13264,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -13300,7 +13312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -13336,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -13372,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -13408,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -13444,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -13483,7 +13495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -13517,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -13554,7 +13566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13590,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13626,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13662,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13701,7 +13713,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13735,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13769,7 +13781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13803,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13837,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13871,7 +13883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -13913,7 +13925,7 @@
       <c r="V69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13947,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13981,7 +13993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -14015,13 +14027,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -14041,12 +14053,12 @@
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -14064,7 +14076,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -14098,7 +14110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -14128,7 +14140,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -14150,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -14172,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -14194,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -14216,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -14238,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -14263,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -14285,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -14307,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -14329,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -14351,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -14373,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -14398,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -14420,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -14442,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -14464,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -14486,7 +14498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -14508,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -14533,7 +14545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -14555,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14577,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14599,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14621,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14643,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14668,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14690,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14712,7 +14724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14734,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14756,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14778,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14803,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14825,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14847,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14869,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14891,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14913,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -14938,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14960,7 +14972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14982,7 +14994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -15004,7 +15016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -15026,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -15048,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -15073,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -15095,7 +15107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -15117,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -15139,7 +15151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -15161,7 +15173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -15183,7 +15195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -15208,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -15230,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -15252,7 +15264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -15274,7 +15286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -15296,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -15318,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -15343,7 +15355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -15365,7 +15377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -15397,7 +15409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15429,7 +15441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15461,7 +15473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15493,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
@@ -15528,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15560,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15592,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15624,7 +15636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15656,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15688,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15723,7 +15735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15755,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15787,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15819,13 +15831,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15845,13 +15857,13 @@
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="17" max="17" width="11.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15869,7 +15881,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15903,7 +15915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15933,7 +15945,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15955,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15977,7 +15989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -15999,7 +16011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -16021,7 +16033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -16043,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -16068,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -16090,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -16112,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -16134,7 +16146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -16156,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -16178,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -16203,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16225,7 +16237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16247,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16269,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16291,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16313,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -16338,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16360,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16382,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16404,7 +16416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16426,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16448,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16473,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16495,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16517,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16539,7 +16551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16561,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16583,7 +16595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16608,7 +16620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16630,7 +16642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16652,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16674,7 +16686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16696,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16718,7 +16730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16743,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16765,7 +16777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16787,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16809,7 +16821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16831,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16853,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16878,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16900,7 +16912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -16922,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -16944,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -16966,7 +16978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -16988,7 +17000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -17013,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17035,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17057,7 +17069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17079,7 +17091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17101,7 +17113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17123,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -17148,7 +17160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17170,7 +17182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17204,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17240,7 +17252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17276,7 +17288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17312,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
@@ -17356,7 +17368,7 @@
       <c r="V63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17390,7 +17402,7 @@
         <v>-5989</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17426,7 +17438,7 @@
       </c>
       <c r="U65" s="3"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17460,7 +17472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17494,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17528,7 +17540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17565,7 +17577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17599,7 +17611,7 @@
         <v>-75511</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17635,7 +17647,7 @@
       </c>
       <c r="U71" s="3"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17669,13 +17681,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -17691,17 +17703,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6AF762-E2EB-4414-A285-FD3ED74AF573}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17719,7 +17731,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17753,7 +17765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17783,7 +17795,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17805,7 +17817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17827,7 +17839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17849,7 +17861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17871,7 +17883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17893,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -17918,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -17940,7 +17952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -17962,7 +17974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -17984,7 +17996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -18006,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -18028,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -18053,7 +18065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -18075,7 +18087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -18097,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -18119,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -18141,7 +18153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -18163,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -18188,7 +18200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -18210,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18232,7 +18244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18254,7 +18266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18276,7 +18288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18298,7 +18310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -18323,7 +18335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18345,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18367,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18389,7 +18401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18411,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18433,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -18458,7 +18470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18480,7 +18492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18502,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18524,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -18546,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -18568,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -18593,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -18615,7 +18627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -18637,7 +18649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -18659,7 +18671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -18681,7 +18693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -18703,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -18728,7 +18740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -18750,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -18772,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -18794,7 +18806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -18816,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -18838,7 +18850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -18863,7 +18875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -18885,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -18907,7 +18919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -18929,7 +18941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -18951,7 +18963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -18973,7 +18985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -18998,7 +19010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19020,7 +19032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19054,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19088,7 +19100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19122,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19156,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
@@ -19193,7 +19205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -19227,7 +19239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -19261,7 +19273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -19297,7 +19309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -19333,7 +19345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -19369,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -19408,7 +19420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -19444,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -19480,7 +19492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -19516,13 +19528,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -19539,15 +19551,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -19565,7 +19577,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -19599,7 +19611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -19629,7 +19641,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -19663,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -19697,7 +19709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -19731,7 +19743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -19765,7 +19777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -19799,7 +19811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -19836,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -19870,7 +19882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -19904,7 +19916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -19938,7 +19950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -19972,7 +19984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -20006,7 +20018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -20043,7 +20055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -20077,7 +20089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -20111,7 +20123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -20145,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -20179,7 +20191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -20213,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -20250,7 +20262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -20284,7 +20296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -20318,7 +20330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -20352,7 +20364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -20386,7 +20398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -20409,7 +20421,7 @@
         <v>17775</v>
       </c>
       <c r="J26" s="6">
-        <v>0.32</v>
+        <v>0.82</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="0"/>
@@ -20420,7 +20432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -20457,7 +20469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -20491,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -20525,7 +20537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -20559,7 +20571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -20593,7 +20605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -20627,7 +20639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -20664,7 +20676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -20698,7 +20710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -20730,7 +20742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -20762,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -20794,7 +20806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -20828,7 +20840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -20865,7 +20877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -20899,7 +20911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -20930,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -20964,7 +20976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -20998,7 +21010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -21032,7 +21044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -21069,7 +21081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -21103,7 +21115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -21137,7 +21149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -21171,7 +21183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -21205,7 +21217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -21239,7 +21251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -21276,7 +21288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -21310,7 +21322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -21344,7 +21356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -21378,7 +21390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -21412,7 +21424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -21446,7 +21458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -21483,7 +21495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -21519,7 +21531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -21555,7 +21567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -21591,7 +21603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -21627,7 +21639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -21660,7 +21672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -21699,7 +21711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -21733,7 +21745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -21765,7 +21777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -21797,7 +21809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -21829,7 +21841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -21861,7 +21873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -21896,7 +21908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -21928,7 +21940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -21960,7 +21972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -21992,13 +22004,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-E-J.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-E-J.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C6A08A-E0AB-431C-8623-E8A37D82DE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C8ED09-D8F6-402E-A95D-EB4D47549FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77235" yWindow="990" windowWidth="31200" windowHeight="21360" firstSheet="3" activeTab="9" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" firstSheet="3" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -145,8 +145,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -203,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -222,10 +223,12 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D039518-803B-4105-922A-5F164A5CB74D}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
@@ -585,10 +588,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2454,7 +2457,7 @@
       <c r="I58" s="3">
         <v>35385</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="14">
         <v>0.70699999999999996</v>
       </c>
       <c r="M58" s="2">
@@ -2488,7 +2491,7 @@
       <c r="I59" s="3">
         <v>38960</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="14">
         <v>0.74199999999999999</v>
       </c>
       <c r="M59" s="2">
@@ -2522,7 +2525,7 @@
       <c r="I60" s="3">
         <v>55917</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="14">
         <v>1.03</v>
       </c>
       <c r="M60" s="2">
@@ -2556,7 +2559,7 @@
       <c r="I61" s="3">
         <v>31029</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="14">
         <v>0.55300000000000005</v>
       </c>
       <c r="M61" s="2">
@@ -2967,10 +2970,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -5585,10 +5588,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -7249,10 +7252,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -8880,10 +8883,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -11494,7 +11497,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R60" sqref="R60"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11511,10 +11514,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -14050,7 +14053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14066,10 +14069,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -15850,11 +15853,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83621353-AE3F-4172-9794-76ACCDC0B3CE}">
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15871,10 +15874,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -17387,11 +17390,11 @@
         <v>37995</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="3">
-        <v>37404</v>
-      </c>
-      <c r="J64" s="6">
-        <v>0.624</v>
+      <c r="I64" s="15">
+        <v>31415</v>
+      </c>
+      <c r="J64" s="14">
+        <v>0.52400000000000002</v>
       </c>
       <c r="M64" s="2">
         <f t="shared" si="0"/>
@@ -17399,10 +17402,10 @@
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>-5989</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17438,7 +17441,7 @@
       </c>
       <c r="U65" s="3"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17472,7 +17475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17506,7 +17509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17540,7 +17543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17562,9 +17565,7 @@
       <c r="I69" s="8">
         <v>43332</v>
       </c>
-      <c r="J69" s="9">
-        <v>0.68300000000000005</v>
-      </c>
+      <c r="J69" s="9"/>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
       <c r="M69" s="11">
@@ -17576,8 +17577,9 @@
         <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="V69" s="6"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17596,11 +17598,11 @@
         <v>83901</v>
       </c>
       <c r="H70" s="3"/>
-      <c r="I70" s="5">
-        <v>86142</v>
-      </c>
-      <c r="J70" s="6">
-        <v>1.242</v>
+      <c r="I70" s="15">
+        <v>10631</v>
+      </c>
+      <c r="J70" s="14">
+        <v>0.156</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="2"/>
@@ -17608,10 +17610,11 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>-75511</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="16"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17646,8 +17649,9 @@
         <v>29</v>
       </c>
       <c r="U71" s="3"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA71" s="16"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17681,13 +17685,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -17721,10 +17725,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -19567,10 +19571,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-E-J.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-E-J.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C8ED09-D8F6-402E-A95D-EB4D47549FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857986D2-7CD6-41EC-91DD-52B7153B562F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" firstSheet="3" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="2835" yWindow="825" windowWidth="23355" windowHeight="19110" firstSheet="3" activeTab="3" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="JICAMA" sheetId="11" r:id="rId10"/>
     <sheet name="JITOMATE" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -549,14 +544,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -575,12 +570,12 @@
       <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -598,7 +593,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -632,7 +627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -662,7 +657,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -694,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -726,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -758,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -790,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -822,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -857,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -889,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -921,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -953,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -985,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -1017,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -1084,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -1116,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1148,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1180,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1212,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1247,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1279,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1311,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1343,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1375,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1407,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1442,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1474,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1506,7 +1501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1570,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1602,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1637,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1669,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1701,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1733,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1765,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1797,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1832,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1864,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1896,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1928,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1960,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1992,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -2027,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -2059,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -2091,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -2123,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -2157,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -2191,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -2228,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -2262,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -2296,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -2330,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -2364,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -2398,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -2435,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -2469,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -2503,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -2537,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -2571,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2603,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -2640,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2672,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2704,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2736,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2768,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2800,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2835,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2867,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2899,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2931,13 +2926,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -2957,12 +2952,12 @@
       <selection pane="bottomLeft" activeCell="J64" sqref="J64:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2980,7 +2975,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3014,7 +3009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3044,7 +3039,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -3078,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -3112,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -3146,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -3180,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -3214,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -3251,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -3287,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -3323,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -3359,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -3395,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -3431,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -3470,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -3506,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -3542,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -3578,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -3614,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -3650,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -3689,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -3725,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3761,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3797,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3833,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3869,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3908,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3944,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3980,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -4016,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -4052,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -4088,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -4127,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -4163,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -4199,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -4235,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -4271,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -4307,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -4346,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4382,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -4418,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -4454,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -4490,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -4526,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -4565,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -4601,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -4637,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -4673,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -4709,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -4745,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -4784,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4820,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4856,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4892,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4928,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4964,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -5003,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -5039,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -5075,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -5111,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -5147,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -5183,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -5222,7 +5217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -5258,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -5294,7 +5289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -5330,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -5366,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -5402,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -5441,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -5477,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -5513,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -5549,13 +5544,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -5575,12 +5570,12 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5598,7 +5593,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -5632,7 +5627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -5662,7 +5657,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -5684,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5706,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -5728,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -5750,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5772,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -5797,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5819,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5841,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5863,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5885,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5907,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -5932,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5954,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5976,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5998,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -6020,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -6042,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -6067,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -6089,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -6111,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -6133,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -6155,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -6177,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -6202,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -6224,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -6246,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -6268,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -6290,7 +6285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -6312,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -6337,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -6359,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -6381,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -6403,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -6425,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -6447,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -6472,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -6494,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -6516,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -6538,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -6560,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -6582,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -6607,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -6629,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -6651,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -6673,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -6695,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6717,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -6742,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6764,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6786,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6808,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6830,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6852,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -6877,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6899,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6921,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6943,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6965,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6987,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -7012,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -7034,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -7056,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -7078,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -7100,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -7122,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -7147,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -7169,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -7191,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -7213,13 +7208,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -7239,12 +7234,12 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -7262,7 +7257,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -7296,7 +7291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -7326,7 +7321,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -7348,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -7370,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -7392,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -7414,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -7436,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -7458,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -7480,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -7502,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -7524,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -7546,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7568,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -7590,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7612,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7634,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7656,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7678,7 +7673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7700,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7722,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -7744,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -7766,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -7788,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -7810,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -7832,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -7854,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -7876,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -7898,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -7920,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -7942,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -7964,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -7986,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -8008,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -8030,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -8052,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -8074,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -8096,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -8118,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -8140,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -8162,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -8184,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8206,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8228,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -8250,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -8272,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -8294,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -8316,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8338,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -8360,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -8382,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -8404,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -8426,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -8448,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -8470,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -8492,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -8514,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -8536,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -8558,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -8580,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8602,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8624,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -8646,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8668,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8690,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8712,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8734,7 +8729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8756,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -8778,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8800,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -8822,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -8844,13 +8839,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -8865,17 +8860,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE2B101-4BA2-482B-9CAF-05A04DF98DAA}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O73" sqref="O73:O76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8893,7 +8888,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -8927,7 +8922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -8957,7 +8952,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -8993,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9029,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -9065,7 +9060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -9101,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -9137,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -9176,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -9212,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -9248,7 +9243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -9284,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -9320,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -9356,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -9395,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -9431,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -9467,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -9503,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -9539,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9575,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -9614,7 +9609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9650,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9686,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9722,7 +9717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -9758,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -9794,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -9833,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -9869,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -9905,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -9941,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -9977,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -10013,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -10052,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10088,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -10124,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -10158,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -10194,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -10230,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -10269,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -10305,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -10341,7 +10336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -10377,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -10410,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -10446,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -10485,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -10521,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -10557,7 +10552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -10593,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -10629,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10665,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -10704,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10740,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10776,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -10812,7 +10807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -10848,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -10884,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -10923,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -10959,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -10995,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11031,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11067,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11103,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -11142,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -11178,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -11214,7 +11209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -11250,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -11286,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -11322,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -11357,11 +11352,11 @@
       </c>
       <c r="N69" s="10"/>
       <c r="O69" s="10">
-        <f t="shared" ref="O69:O72" si="5">D69-G69+F69-I69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="O69:O76" si="5">D69-G69+F69-I69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -11397,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -11433,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -11469,19 +11464,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1983</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1281706</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1433</v>
+      </c>
+      <c r="G73" s="3">
+        <v>40903</v>
+      </c>
       <c r="H73" s="3"/>
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I73" s="3">
+        <v>1242236</v>
+      </c>
+      <c r="J73" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1984</v>
+      </c>
+      <c r="D74" s="3">
+        <v>930692</v>
+      </c>
+      <c r="F74" s="3">
+        <v>119125</v>
+      </c>
+      <c r="G74" s="3">
+        <v>130277</v>
+      </c>
       <c r="H74" s="3"/>
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="J75" s="6"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I74" s="3">
+        <v>919540</v>
+      </c>
+      <c r="J74" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1985</v>
+      </c>
+      <c r="D75" s="3">
+        <v>911908</v>
+      </c>
+      <c r="F75" s="3">
+        <v>144561</v>
+      </c>
+      <c r="G75">
+        <v>122</v>
+      </c>
+      <c r="I75" s="3">
+        <v>1056347</v>
+      </c>
+      <c r="J75" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1986</v>
+      </c>
+      <c r="D76" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
       <c r="H76" s="3"/>
+      <c r="I76" s="3">
+        <v>1085000</v>
+      </c>
+      <c r="J76">
+        <v>16</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11500,13 +11580,13 @@
       <selection pane="bottomLeft" activeCell="A64" sqref="A64:O72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
-    <col min="2" max="2" width="8.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11524,7 +11604,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11558,7 +11638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11588,7 +11668,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -11622,7 +11702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11656,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11690,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11724,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11758,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -11795,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11831,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11867,7 +11947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11901,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11937,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -11973,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -12012,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -12046,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -12080,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -12115,7 +12195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -12149,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -12183,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -12220,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -12254,7 +12334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -12288,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -12322,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -12356,7 +12436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -12390,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -12433,7 +12513,7 @@
       <c r="V27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -12467,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -12501,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12535,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -12569,7 +12649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -12603,7 +12683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -12640,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12674,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12708,7 +12788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12742,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12776,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12810,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12847,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12881,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12915,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12951,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12985,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -13021,7 +13101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -13060,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -13096,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -13132,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -13168,7 +13248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -13204,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -13240,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -13279,7 +13359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -13315,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -13351,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -13387,7 +13467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -13423,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -13459,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -13498,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -13532,7 +13612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -13569,7 +13649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13605,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13641,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13677,7 +13757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13716,7 +13796,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13750,7 +13830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13784,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13818,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13852,7 +13932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13886,7 +13966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -13928,7 +14008,7 @@
       <c r="V69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13962,7 +14042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13996,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -14030,13 +14110,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -14056,12 +14136,12 @@
       <selection pane="bottomLeft" activeCell="A64" sqref="A64:O72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -14079,7 +14159,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -14113,7 +14193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -14143,7 +14223,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -14165,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -14187,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -14209,7 +14289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -14231,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -14253,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -14278,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -14300,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -14322,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -14344,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -14366,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -14388,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -14413,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -14435,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -14457,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -14479,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -14501,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -14523,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -14548,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -14570,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14592,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14614,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14636,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14658,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14683,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14705,7 +14785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14727,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14749,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14771,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14793,7 +14873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14818,7 +14898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14840,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14862,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14884,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14906,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14928,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -14953,7 +15033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14975,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14997,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -15019,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -15041,7 +15121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -15063,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -15088,7 +15168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -15110,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -15132,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -15154,7 +15234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -15176,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -15198,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -15223,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -15245,7 +15325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -15267,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -15289,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -15311,7 +15391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -15333,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -15358,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -15380,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -15412,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15444,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15476,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15508,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
@@ -15543,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15575,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15607,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15639,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15671,7 +15751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15703,7 +15783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15738,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15770,7 +15850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15802,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15834,13 +15914,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15853,20 +15933,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83621353-AE3F-4172-9794-76ACCDC0B3CE}">
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73:D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
-    <col min="17" max="17" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15884,7 +15964,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15918,7 +15998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15948,7 +16028,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15970,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15992,7 +16072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -16014,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -16036,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -16058,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -16083,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -16105,7 +16185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -16127,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -16149,7 +16229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -16171,7 +16251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -16193,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -16218,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16240,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16262,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16284,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16306,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16328,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -16353,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16375,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16397,7 +16477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16419,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16441,7 +16521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16463,7 +16543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16488,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16510,7 +16590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16532,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16554,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16576,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16598,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16623,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16645,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16667,7 +16747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16689,7 +16769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16711,7 +16791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16733,7 +16813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16758,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16780,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16802,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16824,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16846,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16868,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16893,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16915,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -16937,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -16959,7 +17039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -16981,7 +17061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -17003,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -17028,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17050,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17072,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17094,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17116,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17138,7 +17218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -17163,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17185,7 +17265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17219,7 +17299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17255,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17291,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17327,7 +17407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
@@ -17371,7 +17451,7 @@
       <c r="V63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17405,7 +17485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17441,7 +17521,7 @@
       </c>
       <c r="U65" s="3"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17475,7 +17555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17509,7 +17589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17543,7 +17623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17579,7 +17659,7 @@
       </c>
       <c r="V69" s="6"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17614,7 +17694,7 @@
       </c>
       <c r="Y70" s="16"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17651,7 +17731,7 @@
       <c r="U71" s="3"/>
       <c r="AA71" s="16"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17685,14 +17765,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="D73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="D74" s="3"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="D75" s="3"/>
       <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="D76" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17712,12 +17802,12 @@
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17735,7 +17825,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17769,7 +17859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17799,7 +17889,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17821,7 +17911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17843,7 +17933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17865,7 +17955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17887,7 +17977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17909,7 +17999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -17934,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -17956,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -17978,7 +18068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -18000,7 +18090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -18022,7 +18112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -18044,7 +18134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -18069,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -18091,7 +18181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -18113,7 +18203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -18135,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -18157,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -18179,7 +18269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -18204,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -18226,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18248,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18270,7 +18360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18292,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18314,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -18339,7 +18429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18361,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18383,7 +18473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18405,7 +18495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18427,7 +18517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18449,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -18474,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18496,7 +18586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18518,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18540,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -18562,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -18584,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -18609,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -18631,7 +18721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -18653,7 +18743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -18675,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -18697,7 +18787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -18719,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -18744,7 +18834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -18766,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -18788,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -18810,7 +18900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -18832,7 +18922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -18854,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -18879,7 +18969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -18901,7 +18991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -18923,7 +19013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -18945,7 +19035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -18967,7 +19057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -18989,7 +19079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -19014,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19036,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19070,7 +19160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19104,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19138,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19172,7 +19262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
@@ -19209,7 +19299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -19243,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -19277,7 +19367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -19313,7 +19403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -19349,7 +19439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -19385,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -19424,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -19460,7 +19550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -19496,7 +19586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -19532,13 +19622,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -19558,12 +19648,12 @@
       <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -19581,7 +19671,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -19615,7 +19705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -19645,7 +19735,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -19679,7 +19769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -19713,7 +19803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -19747,7 +19837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -19781,7 +19871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -19815,7 +19905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -19852,7 +19942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -19886,7 +19976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -19920,7 +20010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -19954,7 +20044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -19988,7 +20078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -20022,7 +20112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -20059,7 +20149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -20093,7 +20183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -20127,7 +20217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -20161,7 +20251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -20195,7 +20285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -20229,7 +20319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -20266,7 +20356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -20300,7 +20390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -20334,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -20368,7 +20458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -20402,7 +20492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -20436,7 +20526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -20473,7 +20563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -20507,7 +20597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -20541,7 +20631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -20575,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -20609,7 +20699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -20643,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -20680,7 +20770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -20714,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -20746,7 +20836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -20778,7 +20868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -20810,7 +20900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -20844,7 +20934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -20881,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -20915,7 +21005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -20946,7 +21036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -20980,7 +21070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -21014,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -21048,7 +21138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -21085,7 +21175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -21119,7 +21209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -21153,7 +21243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -21187,7 +21277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -21221,7 +21311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -21255,7 +21345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -21292,7 +21382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -21326,7 +21416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -21360,7 +21450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -21394,7 +21484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -21428,7 +21518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -21462,7 +21552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -21499,7 +21589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -21535,7 +21625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -21571,7 +21661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -21607,7 +21697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -21643,7 +21733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -21676,7 +21766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -21715,7 +21805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -21749,7 +21839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -21781,7 +21871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -21813,7 +21903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -21845,7 +21935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -21877,7 +21967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -21912,7 +22002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -21944,7 +22034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -21976,7 +22066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -22008,13 +22098,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-E-J.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-E-J.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857986D2-7CD6-41EC-91DD-52B7153B562F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11884D16-6DAA-40AE-A41F-67E59AD274F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="825" windowWidth="23355" windowHeight="19110" firstSheet="3" activeTab="3" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="83775" yWindow="2520" windowWidth="24690" windowHeight="21105" firstSheet="3" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="JICAMA" sheetId="11" r:id="rId10"/>
     <sheet name="JITOMATE" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="35">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -134,6 +139,18 @@
   </si>
   <si>
     <t xml:space="preserve">Promedio 1971/74 </t>
+  </si>
+  <si>
+    <t>note:</t>
+  </si>
+  <si>
+    <t>В 1981 году баланс исчисляется в -46.249</t>
+  </si>
+  <si>
+    <t>Му устанавливаем его в 11.000</t>
+  </si>
+  <si>
+    <t>и вычитаем разницу из величины 1979 года (114,830)</t>
   </si>
 </sst>
 </file>
@@ -544,14 +561,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -570,12 +587,12 @@
       <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -593,7 +610,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -627,7 +644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -657,7 +674,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -689,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -721,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -753,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -785,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -817,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -852,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -884,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -916,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -948,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -980,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -1012,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -1079,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -1111,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1143,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1175,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1207,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1242,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1274,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1306,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1338,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1370,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1402,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1469,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1501,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1533,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1565,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1597,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1632,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1664,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1696,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1728,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1760,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1792,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1859,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1891,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1923,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1955,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1987,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -2022,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -2054,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -2086,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -2118,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -2152,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -2186,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -2223,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -2257,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -2291,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -2325,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -2359,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -2393,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -2430,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -2464,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -2498,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -2532,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -2566,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2598,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -2635,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2667,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2699,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2731,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2763,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2795,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2830,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2862,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2894,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2926,13 +2943,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -2952,12 +2969,12 @@
       <selection pane="bottomLeft" activeCell="J64" sqref="J64:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2975,7 +2992,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3009,7 +3026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3039,7 +3056,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -3073,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -3107,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -3141,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -3175,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -3209,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -3246,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -3282,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -3318,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -3354,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -3390,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -3426,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -3465,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -3501,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -3537,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -3573,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -3609,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -3645,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -3684,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -3720,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3756,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3792,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3828,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3864,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3903,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3939,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3975,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -4011,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -4047,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -4083,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -4122,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -4158,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -4194,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -4230,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -4266,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -4302,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -4341,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4377,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -4413,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -4449,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -4485,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -4521,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -4560,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -4596,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -4632,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -4668,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -4704,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -4740,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -4779,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4815,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4851,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4887,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4923,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4959,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -4998,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -5034,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -5070,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -5106,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -5142,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -5178,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -5217,7 +5234,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -5253,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -5289,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -5325,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -5361,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -5397,7 +5414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -5436,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -5472,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -5508,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -5544,13 +5561,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -5570,12 +5587,12 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5593,7 +5610,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -5627,7 +5644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -5657,7 +5674,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -5679,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5701,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -5723,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -5745,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5767,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -5792,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5814,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5836,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5858,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5880,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5902,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -5927,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5949,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5971,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5993,7 +6010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -6015,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -6037,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -6062,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -6084,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -6106,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -6128,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -6150,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -6172,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -6197,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -6219,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -6241,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -6263,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -6285,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -6307,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -6332,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -6354,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -6376,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -6398,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -6420,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -6442,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -6467,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -6489,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -6511,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -6533,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -6555,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -6577,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -6602,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -6624,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -6646,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -6668,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -6690,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6712,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -6737,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6759,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6781,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6803,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6825,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6847,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -6872,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6894,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6916,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6938,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6960,7 +6977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6982,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -7007,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -7029,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -7051,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -7073,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -7095,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -7117,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -7142,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -7164,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -7186,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -7208,13 +7225,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -7234,12 +7251,12 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -7257,7 +7274,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -7291,7 +7308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -7321,7 +7338,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -7343,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -7365,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -7387,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -7409,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -7431,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -7453,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -7475,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -7497,7 +7514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -7519,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -7541,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7563,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -7585,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7607,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7629,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7651,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7673,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7695,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7717,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -7739,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -7761,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -7783,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -7805,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -7827,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -7849,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -7871,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -7893,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -7915,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -7937,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -7959,7 +7976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -7981,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -8003,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -8025,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -8047,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -8069,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -8091,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -8113,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -8135,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -8157,7 +8174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -8179,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8201,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8223,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -8245,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -8267,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -8289,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -8311,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8333,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -8355,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -8377,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -8399,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -8421,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -8443,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -8465,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -8487,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -8509,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -8531,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -8553,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -8575,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8597,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8619,7 +8636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -8641,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8663,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8685,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8707,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8729,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8751,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -8773,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8795,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -8817,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -8839,13 +8856,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -8860,17 +8877,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE2B101-4BA2-482B-9CAF-05A04DF98DAA}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O73" sqref="O73:O76"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8888,7 +8905,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -8922,7 +8939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -8952,7 +8969,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -8988,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9024,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -9060,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -9096,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -9132,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -9171,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -9207,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -9243,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -9279,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -9315,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -9351,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -9390,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -9426,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -9462,7 +9479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -9498,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -9534,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9570,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -9609,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9645,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9681,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9717,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -9753,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -9789,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -9828,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -9864,7 +9881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -9900,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -9936,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -9972,7 +9989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -10008,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -10047,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10083,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -10119,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -10153,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -10189,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -10225,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -10264,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -10300,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -10336,7 +10353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -10372,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -10405,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -10441,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -10480,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -10516,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -10552,7 +10569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -10588,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -10624,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10660,7 +10677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -10699,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10735,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10771,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -10807,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -10843,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -10879,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -10918,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -10954,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -10990,7 +11007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11026,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11062,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11098,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -11137,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -11173,7 +11190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -11209,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -11245,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -11281,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -11317,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -11356,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -11392,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -11428,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -11464,7 +11481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>1983</v>
       </c>
@@ -11489,7 +11506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>1984</v>
       </c>
@@ -11514,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>1985</v>
       </c>
@@ -11538,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>1986</v>
       </c>
@@ -11576,17 +11593,17 @@
   <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:O72"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="2" max="2" width="8.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11604,7 +11621,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11638,7 +11655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11668,7 +11685,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -11702,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11736,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11770,7 +11787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11804,7 +11821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11838,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -11875,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11911,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11947,7 +11964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11981,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -12017,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -12053,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -12092,7 +12109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -12126,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -12160,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -12195,7 +12212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -12229,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -12263,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -12300,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -12334,7 +12351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -12368,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -12402,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -12436,7 +12453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -12470,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -12513,7 +12530,7 @@
       <c r="V27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -12547,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -12581,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12615,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -12649,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -12683,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -12720,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12754,7 +12771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12788,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12822,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12856,7 +12873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12890,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12927,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12961,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12995,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -13031,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -13065,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -13101,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -13140,7 +13157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -13176,7 +13193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -13212,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -13248,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -13284,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -13320,7 +13337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -13359,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -13395,7 +13412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -13431,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -13467,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -13503,7 +13520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -13539,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -13578,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -13612,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -13649,7 +13666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13685,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13721,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13757,7 +13774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13796,7 +13813,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13830,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13864,7 +13881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13898,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13932,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13966,7 +13983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -14008,7 +14025,7 @@
       <c r="V69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -14042,7 +14059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -14076,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -14110,13 +14127,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -14133,15 +14150,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:O72"/>
+      <selection pane="bottomLeft" activeCell="I59" sqref="I59:I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -14159,7 +14176,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -14193,7 +14210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -14223,7 +14240,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -14245,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -14267,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -14289,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -14311,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -14333,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -14358,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -14380,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -14402,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -14424,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -14446,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -14468,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -14493,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -14515,7 +14532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -14537,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -14559,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -14581,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -14603,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -14628,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -14650,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14672,7 +14689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14694,7 +14711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14716,7 +14733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14738,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14763,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14785,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14807,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14829,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14851,7 +14868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14873,7 +14890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14898,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14920,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14942,7 +14959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14964,7 +14981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14986,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -15008,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -15033,7 +15050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -15055,7 +15072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -15077,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -15099,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -15121,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -15143,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -15168,7 +15185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -15190,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -15212,7 +15229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -15234,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -15256,7 +15273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -15278,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -15303,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -15325,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -15347,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -15369,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -15391,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -15413,7 +15430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -15438,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -15460,7 +15477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -15492,7 +15509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15524,7 +15541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15556,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15588,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
@@ -15623,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15655,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15687,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15719,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15751,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15783,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15818,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15850,7 +15867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15882,7 +15899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15914,13 +15931,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15933,20 +15950,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83621353-AE3F-4172-9794-76ACCDC0B3CE}">
-  <dimension ref="A1:AA76"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73:D76"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="17" max="17" width="11.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15964,7 +15981,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15998,7 +16015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -16028,7 +16045,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -16050,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -16072,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -16094,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -16116,7 +16133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -16138,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -16163,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -16185,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -16207,7 +16224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -16229,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -16251,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -16273,7 +16290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -16298,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16320,7 +16337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16342,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16364,7 +16381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16386,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16408,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -16433,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16455,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16477,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16499,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16521,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16543,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16568,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16590,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16612,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16634,7 +16651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16656,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16678,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16703,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16725,7 +16742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16747,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16769,7 +16786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16791,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16813,7 +16830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16838,7 +16855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16860,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16882,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16904,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16926,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16948,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16973,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16995,7 +17012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -17017,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -17039,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -17061,7 +17078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -17083,7 +17100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -17108,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17130,7 +17147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17152,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17174,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17196,7 +17213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17218,7 +17235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -17243,7 +17260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17265,7 +17282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17299,7 +17316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17335,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17371,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17407,7 +17424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
@@ -17451,7 +17468,7 @@
       <c r="V63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17485,7 +17502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17521,7 +17538,7 @@
       </c>
       <c r="U65" s="3"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17555,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17589,7 +17606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17608,8 +17625,8 @@
         <v>103246</v>
       </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="3">
-        <v>114830</v>
+      <c r="I68" s="15">
+        <v>79581</v>
       </c>
       <c r="J68" s="6">
         <v>1.7010000000000001</v>
@@ -17620,10 +17637,10 @@
       </c>
       <c r="O68">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+        <v>35249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17659,7 +17676,7 @@
       </c>
       <c r="V69" s="6"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17694,7 +17711,7 @@
       </c>
       <c r="Y70" s="16"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17713,8 +17730,8 @@
         <v>64446</v>
       </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="3">
-        <v>-46249</v>
+      <c r="I71" s="15">
+        <v>11000</v>
       </c>
       <c r="J71" s="6"/>
       <c r="M71" s="2">
@@ -17723,7 +17740,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-57249</v>
       </c>
       <c r="Q71" t="s">
         <v>29</v>
@@ -17731,7 +17748,7 @@
       <c r="U71" s="3"/>
       <c r="AA71" s="16"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17765,24 +17782,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1"/>
       <c r="D73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1"/>
       <c r="D74" s="3"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1"/>
       <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <f>114830 + (11000 - 46249)</f>
+        <v>79581</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17802,12 +17842,12 @@
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17825,7 +17865,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17859,7 +17899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17889,7 +17929,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17911,7 +17951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17933,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17955,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17977,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17999,7 +18039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -18024,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -18046,7 +18086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -18068,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -18090,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -18112,7 +18152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -18134,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -18159,7 +18199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -18181,7 +18221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -18203,7 +18243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -18225,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -18247,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -18269,7 +18309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -18294,7 +18334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -18316,7 +18356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18338,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18360,7 +18400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18382,7 +18422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18404,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -18429,7 +18469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18451,7 +18491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18473,7 +18513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18495,7 +18535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18517,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18539,7 +18579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -18564,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18586,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18608,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18630,7 +18670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -18652,7 +18692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -18674,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -18699,7 +18739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -18721,7 +18761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -18743,7 +18783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -18765,7 +18805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -18787,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -18809,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -18834,7 +18874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -18856,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -18878,7 +18918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -18900,7 +18940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -18922,7 +18962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -18944,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -18969,7 +19009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -18991,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -19013,7 +19053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -19035,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -19057,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -19079,7 +19119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -19104,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19126,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19160,7 +19200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19194,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19228,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19262,7 +19302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>30</v>
       </c>
@@ -19299,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -19333,7 +19373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -19367,7 +19407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -19403,7 +19443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -19439,7 +19479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -19475,7 +19515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -19514,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -19550,7 +19590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -19586,7 +19626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -19622,13 +19662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -19648,12 +19688,12 @@
       <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -19671,7 +19711,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -19705,7 +19745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -19735,7 +19775,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -19769,7 +19809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -19803,7 +19843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -19837,7 +19877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -19871,7 +19911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -19905,7 +19945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -19942,7 +19982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -19976,7 +20016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -20010,7 +20050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -20044,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -20078,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -20112,7 +20152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -20149,7 +20189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -20183,7 +20223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -20217,7 +20257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -20251,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -20285,7 +20325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -20319,7 +20359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -20356,7 +20396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -20390,7 +20430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -20424,7 +20464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -20458,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -20492,7 +20532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -20526,7 +20566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -20563,7 +20603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -20597,7 +20637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -20631,7 +20671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -20665,7 +20705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -20699,7 +20739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -20733,7 +20773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -20770,7 +20810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -20804,7 +20844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -20836,7 +20876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -20868,7 +20908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -20900,7 +20940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -20934,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -20971,7 +21011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -21005,7 +21045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -21036,7 +21076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -21070,7 +21110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -21104,7 +21144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -21138,7 +21178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -21175,7 +21215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -21209,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -21243,7 +21283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -21277,7 +21317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -21311,7 +21351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -21345,7 +21385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -21382,7 +21422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -21416,7 +21456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -21450,7 +21490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -21484,7 +21524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -21518,7 +21558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -21552,7 +21592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -21589,7 +21629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -21625,7 +21665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -21661,7 +21701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -21697,7 +21737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -21733,7 +21773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -21766,7 +21806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -21805,7 +21845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -21839,7 +21879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -21871,7 +21911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -21903,7 +21943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -21935,7 +21975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -21967,7 +22007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -22002,7 +22042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -22034,7 +22074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -22066,7 +22106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -22098,13 +22138,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
